--- a/va_facility_data_2025-02-20/Artesia VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Artesia%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Artesia VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Artesia%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf51160f70d054627af12183332f9a839"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc1657804bb634fc98606c6024f6df954"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb6588224776449569785ad2eec995758"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7264e87b44504f94b7911f00b29a7af5"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf503a7bf5ffc4438b9aefec305fcd450"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd374977033f646bb85d70f458eed1585"/>
   </x:sheets>
 </x:workbook>
 </file>
